--- a/data/FSR_S3/stability/FSR_S3 Stability Data.xlsx
+++ b/data/FSR_S3/stability/FSR_S3 Stability Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickruiz/Desktop/FSR/data/FSR_S3/stability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amro365-my.sharepoint.com/personal/pr19556_appliedmed_com/Documents/Desktop/FSR/data/FSR_S3/stability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B5D9B-DE5C-B642-B76E-C8C638351AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A71B5D9B-DE5C-B642-B76E-C8C638351AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD21C24-5FEA-4D57-9740-45D7AC37243C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
+    <workbookView xWindow="4395" yWindow="10155" windowWidth="21600" windowHeight="12735" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -303,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,24 +456,24 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -535,7 +535,7 @@
         <v>0.5459465</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:J2" si="0">$B$2*D2/100</f>
+        <f t="shared" ref="I2" si="0">$B$2*D2/100</f>
         <v>1.3081499999999999</v>
       </c>
       <c r="J2" s="2">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -584,7 +584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
